--- a/unit9-integer optimization/EvenStarFarmRevisited_complete.xlsx
+++ b/unit9-integer optimization/EvenStarFarmRevisited_complete.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="0" windowWidth="18195" windowHeight="11760" tabRatio="500"/>
   </bookViews>
@@ -13,34 +13,48 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$26:$D$34</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$41:$B$48</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$26:$D$33</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$34:$D$34</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$50:$B$52</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$54:$B$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$41:$B$48</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$50:$B$52</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$54:$B$56</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$38</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$41:$D$48</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">整数</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">二进制</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$50:$D$52</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$D$54:$D$56</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$41:$D$48</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$D$50:$D$52</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$D$54:$D$56</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -201,12 +215,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000000_);[Red]\(#,##0.00000000000\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,6 +615,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -925,14 +944,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="28.125" customWidth="1"/>
@@ -941,7 +961,7 @@
     <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -950,14 +970,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -966,14 +986,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1">
+    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1027,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1061,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1126,21 +1146,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1149,14 +1169,14 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1169,7 +1189,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1204,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1199,21 +1219,21 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1222,14 +1242,14 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="29.25" thickBot="1">
+    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1244,12 +1264,12 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="20">
-        <v>406.00000000000011</v>
+        <v>406</v>
       </c>
       <c r="C26" s="21">
         <v>0</v>
@@ -1259,7 +1279,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1294,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1282,14 +1302,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="19">
-        <v>166.99999999906208</v>
+        <v>167</v>
       </c>
       <c r="D28" s="24">
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1324,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -1319,27 +1339,27 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="23">
-        <v>250.99999999732711</v>
+        <v>251</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
       </c>
       <c r="D31" s="24">
-        <v>1.5644161521777278E-9</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="23">
-        <v>106.99999999999756</v>
+        <v>107</v>
       </c>
       <c r="C32" s="19">
         <v>0</v>
@@ -1349,12 +1369,12 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="26">
-        <v>132.99999999923259</v>
+        <v>133</v>
       </c>
       <c r="C33" s="27">
         <v>0</v>
@@ -1364,7 +1384,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42.75">
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>42</v>
       </c>
@@ -1379,21 +1399,21 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="29.25" thickBot="1">
+    <row r="37" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1402,27 +1422,30 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <f>SUMPRODUCT(B26:D33,C6:E13) - B19*(SUM(B26:B33)/119) - B20*B34 - C19*(SUMPRODUCT(C26:C33,D6:D13)/400) - C20*C34 - D20*D34</f>
-        <v>54402.286036911275</v>
+        <v>54402.286036974794</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="30">
         <f>A38-49956.3917680672</f>
-        <v>4445.8942688440729</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>4445.894268907592</v>
+      </c>
+      <c r="D38" s="2">
+        <f>45502.29</f>
+        <v>45502.29</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1437,13 +1460,13 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="16">
         <f t="shared" ref="B41:B48" si="0">SUM(B26:D26)</f>
-        <v>406.00000000000011</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>31</v>
@@ -1453,7 +1476,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
@@ -1469,13 +1492,13 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="16">
         <f>SUM(B28:D28)</f>
-        <v>166.99999999906208</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>31</v>
@@ -1485,7 +1508,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1501,7 +1524,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
@@ -1517,13 +1540,13 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" si="0"/>
-        <v>250.99999999889152</v>
+        <v>251</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
@@ -1533,13 +1556,13 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" si="0"/>
-        <v>106.99999999999756</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>31</v>
@@ -1549,13 +1572,13 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" si="0"/>
-        <v>132.99999999923259</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
@@ -1565,20 +1588,20 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="16">
         <f>SUM(D26:D33)</f>
-        <v>1.5644161521777278E-9</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>31</v>
@@ -1588,13 +1611,13 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="16">
         <f>SUM(B26:B33)/119</f>
-        <v>7.5378151260214903</v>
+        <v>7.53781512605042</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
@@ -1604,13 +1627,13 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="16">
         <f>SUMPRODUCT(C26:C33,D6:D13)/400</f>
-        <v>74.229999999953108</v>
+        <v>74.23</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
@@ -1620,13 +1643,13 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="54" spans="1:5" ht="28.5">
+    <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B54">
         <f>SUM(B26:B33)</f>
-        <v>896.99999999655734</v>
+        <v>897</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>46</v>
@@ -1636,13 +1659,13 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B55">
         <f>SUM(C26:C33)</f>
-        <v>922.99999999906208</v>
+        <v>923</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>46</v>
@@ -1652,13 +1675,13 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.5">
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B56">
         <f>SUM(D26:D33)</f>
-        <v>1.5644161521777278E-9</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>46</v>
